--- a/biology/Histoire de la zoologie et de la botanique/Georges_de_Layens/Georges_de_Layens.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Georges_de_Layens/Georges_de_Layens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges de Layens (1834-1897) est un apiculteur et botaniste français, lauréat de l'Académie des sciences. Il a écrit en coopération avec son cousin Gaston Bonnier, membre de l'institut, professeur à la Sorbonne, un ouvrage couronné par la Société des agriculteurs de France intitulé « Cours complet d'apiculture et conduite d'un rucher isolé ». Ce livre fut publié par l'éditeur Paul Dupont en 1897, et ensuite réédité à de nombreuses reprises, notamment par la Librairie générale d'enseignement en 1946, dépôt légal no 15392.
-Georges de Layens est surtout connu comme coauteur avec Gaston Bonnier de toute une série de flores, petites ou grandes, qui ont été elles aussi rééditées à de nombreuses reprises[1].
+Georges de Layens est surtout connu comme coauteur avec Gaston Bonnier de toute une série de flores, petites ou grandes, qui ont été elles aussi rééditées à de nombreuses reprises.
 Il est connu également pour la mise au point d'une ruche horizontale à cadres avec deux ouvertures qui porte son nom. Il en fait la description et l'usage notamment dans son ouvrage cours complet d'apiculture.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Ouvrages apicoles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gaston Bonnier. (1882). Sur l'attraction des abeilles par les couleurs. Éditeur : [Paris 1882].
 Georges de Layens ; Gaston Bonnier. (1897). Cours complet d'apiculture (Culture des abeilles). Éditeur : Paris : Librairie générale de l'enseignement.
@@ -522,8 +536,8 @@
 Georges de Layens. (1885). Les abeilles : pratique de leur culture : miel, cire, hydromel. Éditeur : Paris : P. Dupont, 1885.
 Georges de Layens. (1900). Le rucher illustre, erreurs à éviter et conseils à suivre. Éditeur : Paris, Paul Dupont [ca. 1900 ?].
 Georges de Layens. (1900). Élevage des abeilles par les procédés modernes ; théorie et pratique en dix-sept leçons. Éditeur : Paris, Goin.
-Georges de Layens. (1879). Élevage des abeilles par les procédés modernes, théorie et pratique en dix-sept leçons. Éditeur : Paris, Librairie central d'agriculture et de jardinage [1879]
-Georges de Layens ; Gaston Bonnier. (1906). L'hydromel vin hydromellisé, cidre hydromellisé, eau-de-vie de miel, vinaigre de miel. Éditeur : Paris : Librairie générale de l'enseignement, [1906]
+Georges de Layens. (1879). Élevage des abeilles par les procédés modernes, théorie et pratique en dix-sept leçons. Éditeur : Paris, Librairie central d'agriculture et de jardinage 
+Georges de Layens ; Gaston Bonnier. (1906). L'hydromel vin hydromellisé, cidre hydromellisé, eau-de-vie de miel, vinaigre de miel. Éditeur : Paris : Librairie générale de l'enseignement, 
 M. Georges de Layens ; Gaston Bonnier. (1907). Curso completo de apicultura : (cultivo de las abejas). Éditeur : Barcelona : F. Granada, 1907.
 Gaston Bonnier. (1907). Le socialisme chez les abeilles : conférence faite à l'Institut général psychologique le 21 décembre 1907. Institut général psychologique. Éditeur : Paris : Au siège de la société, [1907 ?].</t>
         </is>
@@ -553,7 +567,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cours complet d'apiculture : M Georges de Layens ; Gaston Bonnier
 Le rucher illustré: erreurs à éviter et conseils à suivre. M. G. de Layens. Édition: Paris; Dupont, [1910?]
